--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1907023.645913425</v>
+        <v>1908784.176216211</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>96.86671316392818</v>
       </c>
       <c r="C2" t="n">
-        <v>19.72734108435029</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.32383070094876</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>49.98383149362969</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>30.08001967980914</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>44.04032172284573</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772759994</v>
+        <v>92.85788772760026</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425884</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074755</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>152.0200702107682</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>111.1888770004568</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.0460892195167</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>106.1987279473167</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>253.3649122384145</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>271.4863045970631</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470975</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.73431546345029</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D13" t="n">
-        <v>129.1078928223853</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951687</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>60.32297266393842</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.69718571885174</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>70.04554881123975</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766811</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323101</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764008</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764008</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
@@ -4333,16 +4333,16 @@
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985584</v>
@@ -4354,28 +4354,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>133.022847110374</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.7494013246043</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="C3" t="n">
-        <v>325.2963720434773</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4415,16 +4415,16 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017064</v>
@@ -4445,16 +4445,16 @@
         <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487949</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487949</v>
+        <v>320.7740599518761</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1262.405516645698</v>
+        <v>1350.951391437441</v>
       </c>
       <c r="C5" t="n">
-        <v>893.4429997052866</v>
+        <v>981.9888744970292</v>
       </c>
       <c r="D5" t="n">
-        <v>893.4429997052866</v>
+        <v>981.9888744970292</v>
       </c>
       <c r="E5" t="n">
-        <v>863.0591414428532</v>
+        <v>596.2006218987849</v>
       </c>
       <c r="F5" t="n">
-        <v>452.0732366532456</v>
+        <v>185.2147171091773</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077412</v>
+        <v>172.8390759636729</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062529</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901723</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166747009</v>
+        <v>277.9807166746988</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030815</v>
+        <v>521.2049416030779</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709253</v>
+        <v>823.5081935709203</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582761</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079251</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332772</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837899</v>
+        <v>1727.902815837889</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837899</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837899</v>
+        <v>1562.810726301005</v>
       </c>
       <c r="T5" t="n">
-        <v>1516.043480974334</v>
+        <v>1350.951391437441</v>
       </c>
       <c r="U5" t="n">
-        <v>1262.405516645698</v>
+        <v>1350.951391437441</v>
       </c>
       <c r="V5" t="n">
-        <v>1262.405516645698</v>
+        <v>1350.951391437441</v>
       </c>
       <c r="W5" t="n">
-        <v>1262.405516645698</v>
+        <v>1350.951391437441</v>
       </c>
       <c r="X5" t="n">
-        <v>1262.405516645698</v>
+        <v>1350.951391437441</v>
       </c>
       <c r="Y5" t="n">
-        <v>1262.405516645698</v>
+        <v>1350.951391437441</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377067</v>
+        <v>663.7175082377066</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565798</v>
+        <v>489.2644789565796</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953285</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>181.092614289873</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787626</v>
+        <v>61.66788464787564</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806084</v>
+        <v>186.157723980607</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190014</v>
+        <v>399.8722171189991</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223554</v>
+        <v>668.6238185223519</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352549</v>
+        <v>958.8971200352505</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228327</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639518</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090656</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703785</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703785</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="T6" t="n">
-        <v>1247.544644228261</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="U6" t="n">
-        <v>1247.544644228261</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>1333.566663936395</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>1079.329307208193</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022729</v>
+        <v>871.4778070026605</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577747</v>
+        <v>663.7175082377066</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.6108786570006</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="C7" t="n">
-        <v>184.6746957290937</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675798</v>
+        <v>34.55805631675777</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574785</v>
+        <v>64.24066662574721</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584133</v>
+        <v>132.1299861584121</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347998</v>
+        <v>206.9680378347981</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195401</v>
+        <v>287.8841338195379</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193476</v>
+        <v>342.3101561934732</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858054</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858054</v>
+        <v>141.8294986877848</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858054</v>
+        <v>34.55805631675777</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.1920092600733</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="C8" t="n">
-        <v>318.2294923196616</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348528</v>
+        <v>1126.362585684217</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348528</v>
+        <v>740.5743330859732</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>329.5884282963656</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>317.597787040177</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561087</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561087</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300007</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.791849324195</v>
+        <v>1484.628284290968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829912</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018642</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406129</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351574</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446204239</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446204239</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101748</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373546</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168013</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030593</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.8483030668308</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809315</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809315</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>299.4967678970705</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929399</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>135.9796239950296</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.238542663355</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6958,25 +6958,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7104,43 +7104,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D13" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.7828069546817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>273.1465727897273</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.257951202385321</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>86.11098998263074</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>126.9182872993606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>147.3599015160485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194673</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998141</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862752.5287998141</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253163</v>
+        <v>270592.3620253135</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231904</v>
+        <v>115410.0540231917</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882064</v>
+        <v>62913.63765881999</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197423</v>
+        <v>27875.25362197461</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263452</v>
+        <v>206604.4229263459</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26447,13 +26447,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26472,10 +26472,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936847</v>
+        <v>76435.73471936827</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352150.0288615905</v>
+        <v>-352150.0288615904</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923396816</v>
+        <v>21096.71923397011</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370385</v>
+        <v>199917.112937037</v>
       </c>
       <c r="E6" t="n">
-        <v>-153957.0808414156</v>
+        <v>-153644.4395124957</v>
       </c>
       <c r="F6" t="n">
-        <v>447486.1267328481</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="G6" t="n">
-        <v>447486.1267328483</v>
+        <v>447798.7680617699</v>
       </c>
       <c r="H6" t="n">
-        <v>447486.1267328482</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="I6" t="n">
-        <v>447486.1267328482</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="J6" t="n">
-        <v>398421.1820043039</v>
+        <v>398733.8233332249</v>
       </c>
       <c r="K6" t="n">
-        <v>384572.4890740277</v>
+        <v>384885.1304029495</v>
       </c>
       <c r="L6" t="n">
-        <v>419610.8731108741</v>
+        <v>419923.514439795</v>
       </c>
       <c r="M6" t="n">
-        <v>290339.7461812508</v>
+        <v>290652.3875101716</v>
       </c>
       <c r="N6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="O6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617697</v>
       </c>
       <c r="P6" t="n">
-        <v>447486.1267328482</v>
+        <v>447798.7680617695</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950646</v>
+        <v>758.8996292950626</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594747</v>
+        <v>431.9757039594721</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821601</v>
+        <v>210.4296883821579</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262051</v>
+        <v>94.81103524262153</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931547</v>
+        <v>244.4501167931522</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931547</v>
+        <v>244.4501167931522</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931547</v>
+        <v>244.4501167931522</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>285.8671284995524</v>
       </c>
       <c r="C2" t="n">
-        <v>345.5455506866573</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988682</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.2093529489186</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>155.7891537098478</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377793</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213464</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>351.8503503924526</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>264.1899343486277</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425833</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372552</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246125</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937492</v>
+        <v>43.32085084937507</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074782</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>41.5651418866745</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>121.6117101489685</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.7858909624206</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599128</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2419391930401</v>
+        <v>30.24193919304037</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589109</v>
+        <v>36.91115760589139</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166221</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130601</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>112.385925404778</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>101.3181293822684</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>32.84050015911998</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>115.230253902329</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714536</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>93.51250563517755</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.859222202665234e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085684</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429378</v>
+        <v>31.24454604429369</v>
       </c>
       <c r="I5" t="n">
-        <v>117.618001842806</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286714</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520284</v>
+        <v>388.0799144520274</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511796</v>
+        <v>481.4474502511783</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968122</v>
+        <v>535.7030533968107</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610719</v>
+        <v>544.3712888610704</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519151</v>
+        <v>514.0343715191497</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860982</v>
+        <v>438.716443486097</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634669</v>
+        <v>329.4577782634661</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098738</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899011</v>
+        <v>69.52130774898993</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920259</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868547</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030894</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403521</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062508</v>
+        <v>56.20152915062493</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475943</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316642</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721904</v>
+        <v>354.4276051721894</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658102</v>
+        <v>413.600297965809</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468683</v>
+        <v>424.5470671468672</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374469</v>
+        <v>388.3776244374458</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872503</v>
+        <v>311.7072835872494</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547506</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632164</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947733</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378907</v>
+        <v>6.579516597378889</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757167</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237002</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1672760237799</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734548</v>
+        <v>41.15475366734537</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635601</v>
+        <v>96.75348224635574</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260807</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162539</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399147</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528497</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275356</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515006</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235548</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054735</v>
+        <v>61.53307486054718</v>
       </c>
       <c r="S7" t="n">
-        <v>23.8493539239121</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830823</v>
+        <v>5.847259438830808</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656381</v>
+        <v>0.07464586517656362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198508</v>
+        <v>77.8914117019844</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070479</v>
+        <v>167.9900634070469</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811924</v>
+        <v>245.681035281191</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695394</v>
+        <v>305.356820169538</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264481</v>
+        <v>314.9582252644795</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974643</v>
+        <v>283.9361600974629</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308286</v>
+        <v>207.4834477308274</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890175</v>
+        <v>107.1520883890166</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092756</v>
+        <v>27.38366498092714</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573052</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923162</v>
+        <v>215.8732253923152</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437919</v>
+        <v>271.4662640437907</v>
       </c>
       <c r="N6" t="n">
-        <v>293.205355063535</v>
+        <v>293.2053550635338</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930025</v>
+        <v>245.7813799930014</v>
       </c>
       <c r="P6" t="n">
-        <v>177.73287617292</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872909</v>
+        <v>68.38629016872852</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554532</v>
+        <v>29.98243465554489</v>
       </c>
       <c r="L7" t="n">
-        <v>68.5750702350156</v>
+        <v>68.57507023501506</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230964</v>
+        <v>75.59399159230907</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876165</v>
+        <v>81.73343028761593</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569276</v>
+        <v>54.97578017569222</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235296</v>
+        <v>27.78676100235251</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -37244,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066212</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37472,7 +37472,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
